--- a/game/MMO/ExcelMMO/privilege.xlsx
+++ b/game/MMO/ExcelMMO/privilege.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mtjmmo\branches\qy_yj_dev_2.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D30BB0-AD32-4729-BAAF-64DAA55F4776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776F4488-5280-42A8-BC88-D15C9F72DD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="22410" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -1032,10 +1032,10 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1438,10 +1438,10 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>47080000411</v>
+        <v>47051020300</v>
       </c>
       <c r="L9">
-        <v>47080000413</v>
+        <v>47051020301</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>43</v>
       </c>
       <c r="K10">
-        <v>47080000411</v>
+        <v>47051020310</v>
       </c>
       <c r="L10">
-        <v>47080000413</v>
+        <v>47051020311</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>43</v>
       </c>
       <c r="K11">
-        <v>47080000411</v>
+        <v>47051020320</v>
       </c>
       <c r="L11">
-        <v>47080000413</v>
+        <v>47051020321</v>
       </c>
       <c r="M11" s="5">
         <v>0</v>
